--- a/WorkBot/refactor/data/orders/Regional Distributors, Inc/Regional Distributors, Inc._Triphammer_2025-09-26.xlsx
+++ b/WorkBot/refactor/data/orders/Regional Distributors, Inc/Regional Distributors, Inc._Triphammer_2025-09-26.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,168 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>40179</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cont - Half Rib Combo (10" x 7")</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>278.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>38637</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lid - Portion (2oz)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>33282</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Container - Microwavable Combo (12oz)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14909</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lid - Deli (6/32oz)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22434</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Container - Deli (8oz)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22435</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Container - Deli (16oz)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.88</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
